--- a/linux常用命令.xlsx
+++ b/linux常用命令.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="12708" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
+  <si>
+    <t>Linux常用命令</t>
+  </si>
+  <si>
+    <t>目录</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>命令</t>
+  </si>
   <si>
     <t>创建</t>
   </si>
@@ -175,6 +187,12 @@
     <t>vi 文件（vim）</t>
   </si>
   <si>
+    <t>按行反向显示</t>
+  </si>
+  <si>
+    <t>tac 文件</t>
+  </si>
+  <si>
     <t>查看部分文件内容（默认前十行）（+n表示多少行到末尾）</t>
   </si>
   <si>
@@ -214,7 +232,7 @@
     <t>改变文件的权限</t>
   </si>
   <si>
-    <t>chmod</t>
+    <t>chmod 777 text（修改test文件为可读可写可执行）</t>
   </si>
   <si>
     <t>切换权限</t>
@@ -224,6 +242,15 @@
   </si>
   <si>
     <t>su root</t>
+  </si>
+  <si>
+    <t>查看指令（帮助）</t>
+  </si>
+  <si>
+    <t>查看命令手册</t>
+  </si>
+  <si>
+    <t>ls - -help</t>
   </si>
   <si>
     <t>查看指令</t>
@@ -248,19 +275,49 @@
 （ls | grep txt.c如果有这个.c文件就会被显示出来）</t>
   </si>
   <si>
+    <t>解压与压缩文件</t>
+  </si>
+  <si>
+    <t>打包文件</t>
+  </si>
+  <si>
+    <t>tar -cvf 压缩文件 被压缩文件</t>
+  </si>
+  <si>
+    <t>解开文件</t>
+  </si>
+  <si>
+    <t>tar -xvf 压缩文件</t>
+  </si>
+  <si>
+    <t>打包压缩文件</t>
+  </si>
+  <si>
+    <t>tar -zcvf 压缩文件 被压缩文件</t>
+  </si>
+  <si>
+    <t>解压文件</t>
+  </si>
+  <si>
+    <t>tar -zxvf 压缩文件</t>
+  </si>
+  <si>
     <t>压缩文件</t>
   </si>
   <si>
+    <t>gzip 压缩文件 被压缩文件</t>
+  </si>
+  <si>
+    <t>gunzip 压缩文件</t>
+  </si>
+  <si>
     <t>压缩文件（压缩文件有目录并且有文件内容需要加-r，表示递归压缩）</t>
   </si>
   <si>
     <t>zip 压缩文件名 压缩文件(多个)</t>
   </si>
   <si>
-    <t>解压文件</t>
-  </si>
-  <si>
-    <t>unzip</t>
+    <t>unzip 压缩文件</t>
   </si>
   <si>
     <t>查看后台进程</t>
@@ -290,7 +347,7 @@
     <t>文件类型</t>
   </si>
   <si>
-    <t>文件第一位{l链接文件，d目录，-普通文件，c字符设备，b块设备}第二位{r可读，w可写，-禁止，x可执行，rwx 111 7，rw- 110 6 r-- 100 4，-w- 010 2，}</t>
+    <t>文件第一位{l链接文件，d目录，-普通文件，c字符设备，b块设备}第二位{r可读，w可写，-禁止，x可执行，rwx 111 7，rw- 110 6 r-- 100 4，-w- 010 2，权限赋予：拥有者权限u、同用户组权限}</t>
   </si>
   <si>
     <t>创建链接</t>
@@ -306,6 +363,24 @@
   </si>
   <si>
     <t>ln 文件名（源文件） 文件名</t>
+  </si>
+  <si>
+    <t>查看用户</t>
+  </si>
+  <si>
+    <t>查看当前登录的用户</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>whoami</t>
+  </si>
+  <si>
+    <t>查看当前登录的用户信息</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -314,11 +389,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,22 +402,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,14 +456,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +493,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,24 +522,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,22 +546,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -480,192 +563,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -695,9 +778,51 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,7 +831,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,11 +851,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,30 +876,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -807,10 +914,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,143 +926,152 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,16 +1084,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1299,10 +1430,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1312,433 +1443,554 @@
     <col min="3" max="3" width="29.5555555555556" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="17.4" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="C23" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" ht="28.8" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" ht="28.8" spans="1:3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="3" t="s">
+    </row>
+    <row r="34" ht="28.8" spans="1:3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" ht="28.8" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="5" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" ht="43.2" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="5" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" ht="28.8" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="3" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
+      <c r="C37" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="3" t="s">
+    </row>
+    <row r="38" ht="28.8" spans="1:3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="38" ht="28.8" spans="1:3">
-      <c r="A38" s="5" t="s">
+      <c r="C38" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="3" t="s">
+    </row>
+    <row r="39" ht="43.2" spans="1:3">
+      <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" ht="43.2" spans="1:3">
-      <c r="A39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="8" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" ht="28.8" spans="1:3">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="5" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" ht="43.2" spans="1:3">
-      <c r="A41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="8" t="s">
+    </row>
+    <row r="42" ht="28.8" spans="1:3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="7" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="3" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="8" t="s">
         <v>96</v>
       </c>
     </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" ht="28.8" spans="1:3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" ht="28.8" spans="1:3">
+      <c r="A48" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" ht="43.2" spans="1:3">
+      <c r="A49" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" ht="28.8" spans="1:3">
+      <c r="A50" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" ht="57.6" spans="1:3">
+      <c r="A51" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="15"/>
+      <c r="B55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A30"/>
-    <mergeCell ref="A42:A43"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/linux常用命令.xlsx
+++ b/linux常用命令.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12708" windowHeight="9275"/>
+    <workbookView windowWidth="12708" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,13 +229,13 @@
     <t>getit</t>
   </si>
   <si>
-    <t>改变文件的权限</t>
-  </si>
-  <si>
-    <t>chmod 777 text（修改test文件为可读可写可执行）</t>
-  </si>
-  <si>
     <t>切换权限</t>
+  </si>
+  <si>
+    <t>改变文件的权限权限赋予：拥有者权限u（前三位）、同用户组权限g（中间三位）、其他用户o（后三位）、所有用户a{+表示增加权限，-表示取消权限、=赋予给定权限并取消其他所有权限}</t>
+  </si>
+  <si>
+    <t>chmod 777 text（修改test文件为可读可写可执行，777分别对应各用户权限十进制值（-表示0，权限表示1））chmod u+rw 文件名（给文件赋予拥有者可读可写权限）</t>
   </si>
   <si>
     <t>普通用户到管理员用户</t>
@@ -347,7 +347,7 @@
     <t>文件类型</t>
   </si>
   <si>
-    <t>文件第一位{l链接文件，d目录，-普通文件，c字符设备，b块设备}第二位{r可读，w可写，-禁止，x可执行，rwx 111 7，rw- 110 6 r-- 100 4，-w- 010 2，权限赋予：拥有者权限u、同用户组权限}</t>
+    <t>文件第一位{l链接文件，d目录，-普通文件，c字符设备，b块设备}第二位{r可读，w可写，-禁止，x可执行，rwx 111 7，rw- 110 6 r-- 100 4，-w- 010 2，}</t>
   </si>
   <si>
     <t>创建链接</t>
@@ -1056,7 +1056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,6 +1085,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1107,9 +1113,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1432,8 +1435,8 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1754,19 +1757,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" ht="28.8" spans="1:3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6" t="s">
+    <row r="34" ht="86.4" spans="1:3">
+      <c r="A34" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="B34" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="C34" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="A35" s="10"/>
       <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
@@ -1775,7 +1778,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1786,7 +1789,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="10"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="6" t="s">
         <v>79</v>
       </c>
@@ -1815,7 +1818,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1826,7 +1829,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="11"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="8" t="s">
         <v>89</v>
       </c>
@@ -1835,7 +1838,7 @@
       </c>
     </row>
     <row r="42" ht="28.8" spans="1:3">
-      <c r="A42" s="11"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="8" t="s">
         <v>91</v>
       </c>
@@ -1844,7 +1847,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="11"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="8" t="s">
         <v>93</v>
       </c>
@@ -1853,7 +1856,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="11"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="8" t="s">
         <v>95</v>
       </c>
@@ -1862,7 +1865,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="11"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="8" t="s">
         <v>93</v>
       </c>
@@ -1871,7 +1874,7 @@
       </c>
     </row>
     <row r="46" ht="28.8" spans="1:3">
-      <c r="A46" s="11"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="8" t="s">
         <v>98</v>
       </c>
@@ -1880,7 +1883,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="10"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="6" t="s">
         <v>93</v>
       </c>
@@ -1900,13 +1903,13 @@
       </c>
     </row>
     <row r="49" ht="43.2" spans="1:3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="15" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1921,23 +1924,23 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" ht="57.6" spans="1:3">
-      <c r="A51" s="12" t="s">
+    <row r="51" ht="43.2" spans="1:3">
+      <c r="A51" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="12"/>
+      <c r="C51" s="14"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="14" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1951,18 +1954,18 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="15"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="4" t="s">
         <v>117</v>
       </c>
@@ -1971,7 +1974,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="17"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="4" t="s">
         <v>120</v>
       </c>
@@ -1980,13 +1983,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="A52:A53"/>

--- a/linux常用命令.xlsx
+++ b/linux常用命令.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12708" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
   <si>
-    <t>Linux常用命令</t>
+    <r>
+      <t xml:space="preserve">Linux常用命令                                                                                         
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注：仅供参考，若存在问题请留言，谢谢</t>
+    </r>
   </si>
   <si>
     <t>目录</t>
@@ -393,7 +406,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +562,13 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1064,10 +1084,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1435,8 +1455,8 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1446,7 +1466,7 @@
     <col min="3" max="3" width="29.5555555555556" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:3">
+    <row r="1" ht="29" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/linux常用命令.xlsx
+++ b/linux常用命令.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="11520" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <t>编辑文本文件</t>
   </si>
   <si>
-    <t>vi 文件（vim）</t>
+    <t>vi 文件（vim）（Esc wq退出，Shift ZZ保存退出）</t>
   </si>
   <si>
     <t>按行反向显示</t>
@@ -1455,8 +1455,8 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1705,12 +1705,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" ht="28.8" spans="1:3">
       <c r="A26" s="7"/>
       <c r="B26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>56</v>
       </c>
     </row>

--- a/linux常用命令.xlsx
+++ b/linux常用命令.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9275"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,14 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Linux常用命令                                                                                         
 </t>
     </r>
@@ -194,10 +202,10 @@
     <t>more（z翻页，b翻页，q退出）</t>
   </si>
   <si>
-    <t>编辑文本文件</t>
-  </si>
-  <si>
-    <t>vi 文件（vim）（Esc wq退出，Shift ZZ保存退出）</t>
+    <t>编辑文本文件（三种模式）</t>
+  </si>
+  <si>
+    <t>vi 文件（vim）（i进入编辑模式（插入光标前）a进入编辑模式（插入光标后）r替换光标处文本，o下一行，Shift ：表示末尾插入文本，Esc返回普通模式，Shift：+w保存，Shift：+q退出，Shift：+q！强制退出，Shift ZZ保存退出，末行/表示搜索 ）</t>
   </si>
   <si>
     <t>按行反向显示</t>
@@ -401,10 +409,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -437,8 +445,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,29 +522,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,14 +546,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,7 +561,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,38 +575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -589,13 +597,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,37 +741,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,121 +765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,24 +841,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -871,6 +861,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -882,6 +907,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,32 +934,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -937,7 +945,7 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,142 +954,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1090,26 +1098,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1120,19 +1113,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1455,15 +1436,15 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9.88888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.3333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:3">
@@ -1488,84 +1469,84 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1573,46 +1554,46 @@
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1620,10 +1601,10 @@
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1631,10 +1612,10 @@
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1642,350 +1623,350 @@
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" ht="28.8" spans="1:3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6" t="s">
+    <row r="26" ht="100.8" spans="1:3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" ht="86.4" spans="1:3">
-      <c r="A34" s="9" t="s">
+    <row r="34" ht="72" spans="1:3">
+      <c r="A34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="38" ht="28.8" spans="1:3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" ht="28.8" spans="1:3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="8" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" ht="28.8" spans="1:3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="48" ht="28.8" spans="1:3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" ht="43.2" spans="1:3">
-      <c r="A49" s="14" t="s">
+    <row r="49" ht="28.8" spans="1:3">
+      <c r="A49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" ht="28.8" spans="1:3">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="51" ht="43.2" spans="1:3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" ht="28.8" spans="1:3">
       <c r="A53" s="5"/>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="17"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="4" t="s">
         <v>117</v>
       </c>
@@ -1994,7 +1975,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="10"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
         <v>120</v>
       </c>

--- a/linux常用命令.xlsx
+++ b/linux常用命令.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$57</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
   <si>
     <r>
       <rPr>
@@ -205,7 +208,78 @@
     <t>编辑文本文件（三种模式）</t>
   </si>
   <si>
-    <t>vi 文件（vim）（i进入编辑模式（插入光标前）a进入编辑模式（插入光标后）r替换光标处文本，o下一行，Shift ：表示末尾插入文本，Esc返回普通模式，Shift：+w保存，Shift：+q退出，Shift：+q！强制退出，Shift ZZ保存退出，末行/表示搜索 ）</t>
+    <r>
+      <t>vi 文件（vim）                             1、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编辑{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i进入编辑模式（插入光标前）a进入编辑模式（插入光标后）r替换光标处文本，o下一行，Shift ：表示末尾插入文本，dd删除行（ndd删除多行），x向后删除一个字符，yy复制光标文本（nyy复制多行），p粘贴，u恢复前一个动作，set number显示行号，%s/内容/替换内容/g 替换内容</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">}                              </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>切换保存{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Esc返回普通模式，Shift：+w保存，Shift：+q退出，Shift：+q！强制退出，Shift ZZ保存退出，末行/或者？表示搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }   </t>
+    </r>
   </si>
   <si>
     <t>按行反向显示</t>
@@ -414,7 +488,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +650,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1084,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,6 +1184,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1434,17 +1525,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9.88888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.3333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:3">
@@ -1570,7 +1661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="28.8" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
         <v>29</v>
@@ -1579,7 +1670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="28.8" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>31</v>
@@ -1686,316 +1777,327 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" ht="100.8" spans="1:3">
+    <row r="26" ht="115.2" spans="1:3">
       <c r="A26" s="5"/>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" ht="43.2" spans="1:3">
       <c r="A27" s="5"/>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5"/>
       <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" ht="28.8" spans="1:3">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5"/>
       <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5"/>
       <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="4" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" ht="72" spans="1:3">
-      <c r="A34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="35" ht="72" spans="1:3">
+      <c r="A35" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="4" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="4" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" ht="28.8" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="4" t="s">
+    </row>
+    <row r="39" ht="28.8" spans="1:3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" ht="43.2" spans="1:3">
-      <c r="A39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="40" ht="43.2" spans="1:3">
+      <c r="A40" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="4" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="4" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="4" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="4" t="s">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="4" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" ht="28.8" spans="1:3">
-      <c r="A46" s="8"/>
+    <row r="46" spans="1:3">
+      <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="4" t="s">
+    </row>
+    <row r="47" ht="28.8" spans="1:3">
+      <c r="A47" s="11"/>
+      <c r="B47" s="4" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" ht="28.8" spans="1:3">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="4" t="s">
+    </row>
+    <row r="49" ht="28.8" spans="1:3">
+      <c r="A49" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" ht="28.8" spans="1:3">
-      <c r="A49" s="9" t="s">
+      <c r="B49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="9" t="s">
+    </row>
+    <row r="50" ht="28.8" spans="1:3">
+      <c r="A50" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="B50" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" ht="28.8" spans="1:3">
-      <c r="A50" s="4" t="s">
+      <c r="C50" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="4" t="s">
+    </row>
+    <row r="51" ht="28.8" spans="1:3">
+      <c r="A51" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" ht="43.2" spans="1:3">
-      <c r="A51" s="9" t="s">
+      <c r="C51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="9" t="s">
+    </row>
+    <row r="52" ht="43.2" spans="1:3">
+      <c r="A52" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="7" t="s">
+      <c r="B52" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="C52" s="12"/>
+    </row>
+    <row r="53" ht="28.8" spans="1:3">
+      <c r="A53" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="B53" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" ht="28.8" spans="1:3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="4" t="s">
+    </row>
+    <row r="54" ht="28.8" spans="1:3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="8" t="s">
+      <c r="C54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="9" t="s">
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="B55" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="7"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="4" t="s">
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="C57" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <autoFilter ref="A1:C57">
+    <extLst/>
+  </autoFilter>
+  <mergeCells count="12">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/linux常用命令.xlsx
+++ b/linux常用命令.xlsx
@@ -209,6 +209,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>vi 文件（vim）                             1、</t>
     </r>
     <r>
@@ -246,6 +253,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2、</t>
     </r>
     <r>
@@ -321,7 +335,7 @@
     <t>向文件里面写入内容</t>
   </si>
   <si>
-    <t>getit</t>
+    <t>gedit</t>
   </si>
   <si>
     <t>切换权限</t>
@@ -484,9 +498,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -506,12 +520,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -535,7 +557,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,6 +565,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,6 +617,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -571,50 +663,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,44 +674,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -673,19 +687,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,163 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,6 +935,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -928,17 +953,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,46 +1001,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,10 +1038,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1036,19 +1050,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,116 +1071,116 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,9 +1216,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1527,8 +1538,8 @@
   <sheetPr/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1856,7 +1867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" ht="72" spans="1:3">
+    <row r="35" ht="57.6" spans="1:3">
       <c r="A35" s="9" t="s">
         <v>72</v>
       </c>
@@ -2002,17 +2013,17 @@
       </c>
     </row>
     <row r="50" ht="28.8" spans="1:3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" ht="28.8" spans="1:3">
+    <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
         <v>107</v>
       </c>
@@ -2024,22 +2035,22 @@
       </c>
     </row>
     <row r="52" ht="43.2" spans="1:3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="12"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" ht="28.8" spans="1:3">
       <c r="A53" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2056,10 +2067,10 @@
       <c r="A55" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="8" t="s">
         <v>119</v>
       </c>
     </row>

--- a/linux常用命令.xlsx
+++ b/linux常用命令.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -237,7 +237,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>i进入编辑模式（插入光标前）a进入编辑模式（插入光标后）r替换光标处文本，o下一行，Shift ：表示末尾插入文本，dd删除行（ndd删除多行），x向后删除一个字符，yy复制光标文本（nyy复制多行），p粘贴，u恢复前一个动作，set number显示行号，%s/内容/替换内容/g 替换内容</t>
+      <t>i进入编辑模式（插入光标前）a进入编辑模式（插入光标后）r替换光标处文本，o换一行，Shift ：表示末尾插入文本，dd删除行（ndd删除多行），x向后删除一个字符，yy复制光标文本（nyy复制多行），p粘贴，u恢复前一个动作，set number显示行号，%s/内容/替换内容/g 替换内容</t>
     </r>
     <r>
       <rPr>
@@ -281,7 +281,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Esc返回普通模式，Shift：+w保存，Shift：+q退出，Shift：+q！强制退出，Shift ZZ保存退出，末行/或者？表示搜索</t>
+      <t>Esc返回普通模式，Shift：+w保存，Shift：+q退出，Shift：+q！强制退出，Shift ZZ保存退出，末行/（后）或者？（前）表示搜索</t>
     </r>
     <r>
       <rPr>
@@ -344,7 +344,7 @@
     <t>改变文件的权限权限赋予：拥有者权限u（前三位）、同用户组权限g（中间三位）、其他用户o（后三位）、所有用户a{+表示增加权限，-表示取消权限、=赋予给定权限并取消其他所有权限}</t>
   </si>
   <si>
-    <t>chmod 777 text（修改test文件为可读可写可执行，777分别对应各用户权限十进制值（-表示0，权限表示1））chmod u+rw 文件名（给文件赋予拥有者可读可写权限）</t>
+    <t>chmod 777 text（修改test文件为可读可写可执行，777分别对应各用户权限十进制值（-表示0，权限表示1））chmod u+rw 文件名（给文件赋予拥有者可读可写权限 chmod -R表示递归修改文件使用权限）</t>
   </si>
   <si>
     <t>普通用户到管理员用户</t>
@@ -490,6 +490,51 @@
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>多个命令执行</t>
+  </si>
+  <si>
+    <t>命令1&amp;&amp;命令2，命令1;命令2</t>
+  </si>
+  <si>
+    <t>GCC编译</t>
+  </si>
+  <si>
+    <t>预处理</t>
+  </si>
+  <si>
+    <t>gcc -E hello.c -o hello.i或者gcc -E hello.c</t>
+  </si>
+  <si>
+    <t>编译为汇编代码</t>
+  </si>
+  <si>
+    <t>gcc -S hello.i -o hello.s</t>
+  </si>
+  <si>
+    <t>汇编</t>
+  </si>
+  <si>
+    <t>gcc -c hello.s -o hello.o</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>gcc hello.o -o hello</t>
+  </si>
+  <si>
+    <t>一步编译到位</t>
+  </si>
+  <si>
+    <t>gcc hello.c -o hello（gcc test1.c test2.c -o test编译多个文件）</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>useradd -d -g -u -c -G -m</t>
   </si>
 </sst>
 </file>
@@ -498,9 +543,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -520,6 +565,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -527,15 +579,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,13 +601,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -571,7 +608,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,6 +650,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -603,7 +694,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,52 +705,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,187 +732,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,20 +980,54 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,17 +1050,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,36 +1075,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1038,149 +1083,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1216,6 +1261,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1536,10 +1590,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1797,7 +1851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" ht="43.2" spans="1:3">
+    <row r="27" ht="57.6" spans="1:3">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7" t="s">
@@ -1867,7 +1921,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" ht="57.6" spans="1:3">
+    <row r="35" ht="72" spans="1:3">
       <c r="A35" s="9" t="s">
         <v>72</v>
       </c>
@@ -2092,11 +2146,74 @@
         <v>122</v>
       </c>
     </row>
+    <row r="58" ht="28.8" spans="1:3">
+      <c r="A58" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="13"/>
+      <c r="B60" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="13"/>
+      <c r="B62" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" ht="28.8" spans="1:3">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C57">
-    <extLst/>
-  </autoFilter>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -2108,6 +2225,7 @@
     <mergeCell ref="A41:A48"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A59:A63"/>
     <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
